--- a/biology/Botanique/Dawson_Turner/Dawson_Turner.xlsx
+++ b/biology/Botanique/Dawson_Turner/Dawson_Turner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dawson Turner est un banquier et antiquaire britannique, né le 18 octobre 1775 et mort le 21 juin 1858.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dawson Turner naît à Great Yarmouth en 1775. Son père, James Turner, est banquier et sa mère, Elizabeth née Cotman, est la fille de l'ancien maire de Yarmouth, John Cotman[1]. Il est formé par le botaniste Robert Forby (1759-1825). En 1796, il se marie avec Mary Palgrave, union dont naîtront onze enfants. Sa fille aînée, Maria Dawson Turner, se marie avec le biologiste Sir William Jackson Hooker (1785-1865), une autre de ses filles, Elizabeth Turner, se marie avec l’historien Francis Palgrave (1788-1861). Son fils, Dawson William Turner (1815-1885), est historien. Dawson Turner était ami de Franz Carl Mertens avec lequel il correspond.
-Il meurt à l'hôpital de Charing Cross à Londres le 29 janvier 1885 et est inhumé au cimetière de Brompton[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dawson Turner naît à Great Yarmouth en 1775. Son père, James Turner, est banquier et sa mère, Elizabeth née Cotman, est la fille de l'ancien maire de Yarmouth, John Cotman. Il est formé par le botaniste Robert Forby (1759-1825). En 1796, il se marie avec Mary Palgrave, union dont naîtront onze enfants. Sa fille aînée, Maria Dawson Turner, se marie avec le biologiste Sir William Jackson Hooker (1785-1865), une autre de ses filles, Elizabeth Turner, se marie avec l’historien Francis Palgrave (1788-1861). Son fils, Dawson William Turner (1815-1885), est historien. Dawson Turner était ami de Franz Carl Mertens avec lequel il correspond.
+Il meurt à l'hôpital de Charing Cross à Londres le 29 janvier 1885 et est inhumé au cimetière de Brompton.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>A Synopsis of the British Fuci (deux volumes, J. White; T. Longman &amp; O. Rees, Londres, 1802).
 Muscologiæ Hibernicæ spicilegium (1804), les illustrations sont de William Jackson Hooker.
